--- a/outputs-HGR-r202/test-g__Enterococcus_A_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_A_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Row</t>
   </si>
@@ -35,6 +35,138 @@
   </si>
   <si>
     <t>even_MAG-GUT2025.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3548.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43446.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43463.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43483.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46441.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46962.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47531.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48673.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48686.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48704.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48723.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48749.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48761.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48798.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48894.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49063.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49069.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49118.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49176.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49226.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49326.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49356.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49393.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49409.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49458.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49499.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49512.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49574.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49593.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49599.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49616.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57264.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57442.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61880.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68043.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68629.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7121.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7125.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91303.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91470.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91943.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT940.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT984.fa</t>
   </si>
   <si>
     <t>1-s__Enterococcus_A gilvus</t>
@@ -91,10 +223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D51"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="25.140625" customWidth="true"/>
     <col min="3" max="3" width="31" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -105,13 +237,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -198,6 +330,622 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.99234456714422858</v>
+      </c>
+      <c r="C8">
+        <v>0.0076554328557714131</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.99937610052312975</v>
+      </c>
+      <c r="C9">
+        <v>0.00062389947687019657</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.99685198341850689</v>
+      </c>
+      <c r="C10">
+        <v>0.0031480165814931536</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.99894311406064829</v>
+      </c>
+      <c r="C11">
+        <v>0.0010568859393517691</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.99843801294447254</v>
+      </c>
+      <c r="C12">
+        <v>0.0015619870555274491</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.99900294087238262</v>
+      </c>
+      <c r="C13">
+        <v>0.00099705912761736287</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.99867173374178575</v>
+      </c>
+      <c r="C14">
+        <v>0.0013282662582142471</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.99611796719007506</v>
+      </c>
+      <c r="C15">
+        <v>0.0038820328099249679</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.99715856671501657</v>
+      </c>
+      <c r="C16">
+        <v>0.0028414332849834578</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.99672935070060387</v>
+      </c>
+      <c r="C17">
+        <v>0.0032706492993961464</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.9990889172243409</v>
+      </c>
+      <c r="C18">
+        <v>0.00091108277565910391</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.99869779185684138</v>
+      </c>
+      <c r="C19">
+        <v>0.0013022081431585731</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.99929306897157022</v>
+      </c>
+      <c r="C20">
+        <v>0.00070693102842979319</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.998375279728413</v>
+      </c>
+      <c r="C21">
+        <v>0.0016247202715870314</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.99756682245888817</v>
+      </c>
+      <c r="C22">
+        <v>0.0024331775411118692</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.99944693246484073</v>
+      </c>
+      <c r="C23">
+        <v>0.00055306753515922062</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.99905188908110709</v>
+      </c>
+      <c r="C24">
+        <v>0.00094811091889291765</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.99925270767780872</v>
+      </c>
+      <c r="C25">
+        <v>0.00074729232219133566</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.99869054555258208</v>
+      </c>
+      <c r="C26">
+        <v>0.0013094544474179053</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.99829181586430993</v>
+      </c>
+      <c r="C27">
+        <v>0.0017081841356900616</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.99634375232876327</v>
+      </c>
+      <c r="C28">
+        <v>0.0036562476712367264</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.99821250062329958</v>
+      </c>
+      <c r="C29">
+        <v>0.0017874993767003893</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.99791511476119876</v>
+      </c>
+      <c r="C30">
+        <v>0.0020848852388012833</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.99950191863764004</v>
+      </c>
+      <c r="C31">
+        <v>0.00049808136236000229</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.99809467480782754</v>
+      </c>
+      <c r="C32">
+        <v>0.0019053251921724464</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.99222662411834417</v>
+      </c>
+      <c r="C33">
+        <v>0.0077733758816558463</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.99913292128384601</v>
+      </c>
+      <c r="C34">
+        <v>0.00086707871615396726</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.99890195034405127</v>
+      </c>
+      <c r="C35">
+        <v>0.0010980496559487604</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.99874358167968291</v>
+      </c>
+      <c r="C36">
+        <v>0.0012564183203170958</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.99746043303835474</v>
+      </c>
+      <c r="C37">
+        <v>0.0025395669616453081</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.99859985336759183</v>
+      </c>
+      <c r="C38">
+        <v>0.0014001466324081936</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.99842973500022836</v>
+      </c>
+      <c r="C39">
+        <v>0.0015702649997716249</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.99827767020798963</v>
+      </c>
+      <c r="C40">
+        <v>0.0017223297920103604</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.9929576398096529</v>
+      </c>
+      <c r="C41">
+        <v>0.0070423601903470716</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.99857554506091428</v>
+      </c>
+      <c r="C42">
+        <v>0.0014244549390857186</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.999560388267558</v>
+      </c>
+      <c r="C43">
+        <v>0.00043961173244197476</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.99936288766931713</v>
+      </c>
+      <c r="C44">
+        <v>0.00063711233068287887</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.99936566427603868</v>
+      </c>
+      <c r="C45">
+        <v>0.00063433572396131871</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.99887166835397589</v>
+      </c>
+      <c r="C46">
+        <v>0.0011283316460240695</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.99808790323154184</v>
+      </c>
+      <c r="C47">
+        <v>0.0019120967684581696</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.99862089713721225</v>
+      </c>
+      <c r="C48">
+        <v>0.0013791028627877003</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.99946966571566498</v>
+      </c>
+      <c r="C49">
+        <v>0.00053033428433497628</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.99848863721186154</v>
+      </c>
+      <c r="C50">
+        <v>0.0015113627881385128</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.99743532574128091</v>
+      </c>
+      <c r="C51">
+        <v>0.0025646742587191228</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>